--- a/Multiple_Linear_Regression/companies.xlsx
+++ b/Multiple_Linear_Regression/companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika.oliveira\Documents\personal_projects\Multiple_Linear_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B05EC-D79F-4D62-B5BF-5892737680E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98609D8D-7D1C-45DD-9BD6-56E87B1F10D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" activeTab="1" xr2:uid="{8F7B79B7-0694-48D1-A615-A723776F04F6}"/>
   </bookViews>
@@ -11678,9 +11678,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1383"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
